--- a/data/trans_orig/CLASESOCIAL_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en País Vasco</t>
+          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2609,7 +2609,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Andalucia</t>
+          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4672,7 +4672,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en C.Valenciana</t>
+          <t>Clase social de la persona entrevistada en C.Valenciana (tasa de respuesta: 82,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6735,7 +6735,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Barcelona</t>
+          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CLASESOCIAL_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4719</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2985</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6097</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38972</t>
+          <t>39267</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34847</t>
+          <t>34866</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43964</t>
+          <t>43737</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>43081</t>
+          <t>43985</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>37813</t>
+          <t>39233</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>48190</t>
+          <t>49590</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>24,82%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71212</t>
+          <t>65817</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>67430</t>
+          <t>62673</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74121</t>
+          <t>68820</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,54%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>78005</t>
+          <t>72975</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73312</t>
+          <t>67856</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>82483</t>
+          <t>77313</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>62,05%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>58,31%</t>
+          <t>56,61%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>65,61%</t>
+          <t>64,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>149216</t>
+          <t>138791</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>142992</t>
+          <t>132919</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>154713</t>
+          <t>143868</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>69,46%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>67,59%</t>
+          <t>66,52%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>73,13%</t>
+          <t>72,0%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10531</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7905</t>
+          <t>6938</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13815</t>
+          <t>12379</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8745</t>
+          <t>7615</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11551</t>
+          <t>10193</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>19276</t>
+          <t>17042</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>15551</t>
+          <t>13887</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>23341</t>
+          <t>20418</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>10,22%</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85851</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85851</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85851</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>125722</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>125722</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>125722</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>211572</t>
+          <t>199819</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>211572</t>
+          <t>199819</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>211572</t>
+          <t>199819</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>32940</t>
+          <t>41715</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28555</t>
+          <t>35657</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38101</t>
+          <t>47897</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67287</t>
+          <t>70803</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60900</t>
+          <t>64156</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>74675</t>
+          <t>78700</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>100226</t>
+          <t>112518</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>92518</t>
+          <t>103563</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>108967</t>
+          <t>121787</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>13,66%</t>
         </is>
       </c>
     </row>
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>302911</t>
+          <t>292638</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>294168</t>
+          <t>284198</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>311329</t>
+          <t>302567</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>68,11%</t>
+          <t>64,6%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,15%</t>
+          <t>62,73%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>66,79%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>245341</t>
+          <t>243908</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>236383</t>
+          <t>235380</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>254528</t>
+          <t>253229</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>57,71%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>55,6%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>59,87%</t>
+          <t>57,78%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>548252</t>
+          <t>536545</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>535512</t>
+          <t>522430</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>558831</t>
+          <t>549236</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>63,03%</t>
+          <t>60,2%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>61,56%</t>
+          <t>58,61%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>64,24%</t>
+          <t>61,62%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>108863</t>
+          <t>118679</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>100544</t>
+          <t>109729</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>116415</t>
+          <t>127264</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>112534</t>
+          <t>123563</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>104366</t>
+          <t>115394</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>120588</t>
+          <t>132230</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>221398</t>
+          <t>242241</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>211053</t>
+          <t>231351</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>233899</t>
+          <t>254898</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>28,6%</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>444714</t>
+          <t>453032</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>444714</t>
+          <t>453032</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>444714</t>
+          <t>453032</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>425162</t>
+          <t>438273</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>425162</t>
+          <t>438273</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>425162</t>
+          <t>438273</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>869876</t>
+          <t>891304</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>869876</t>
+          <t>891304</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>869876</t>
+          <t>891304</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1648,32 +1648,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5824</t>
+          <t>7153</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>5113</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8128</t>
+          <t>10614</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10285</t>
+          <t>10653</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>7901</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>13434</t>
+          <t>13946</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>16110</t>
+          <t>17807</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>13056</t>
+          <t>13759</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>20467</t>
+          <t>21745</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -1761,32 +1761,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23268</t>
+          <t>26309</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19279</t>
+          <t>22180</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27349</t>
+          <t>31076</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29521</t>
+          <t>32248</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25565</t>
+          <t>27455</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33581</t>
+          <t>37499</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>52789</t>
+          <t>58557</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>47447</t>
+          <t>51786</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>58925</t>
+          <t>65323</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>121772</t>
+          <t>139882</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>117569</t>
+          <t>134829</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>126134</t>
+          <t>144664</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>80,72%</t>
+          <t>80,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>77,93%</t>
+          <t>77,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>83,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>153285</t>
+          <t>182301</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>148484</t>
+          <t>176689</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>157750</t>
+          <t>187775</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>76,9%</t>
+          <t>78,46%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>275058</t>
+          <t>322183</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>267873</t>
+          <t>315036</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>281063</t>
+          <t>329693</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>79,97%</t>
+          <t>80,84%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>77,88%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>81,71%</t>
+          <t>82,72%</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>150865</t>
+          <t>173344</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>150865</t>
+          <t>173344</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>150865</t>
+          <t>173344</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>193091</t>
+          <t>225202</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>193091</t>
+          <t>225202</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>193091</t>
+          <t>225202</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>343956</t>
+          <t>398547</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>343956</t>
+          <t>398547</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>343956</t>
+          <t>398547</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2104,32 +2104,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>42873</t>
+          <t>53587</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>38195</t>
+          <t>46846</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>49180</t>
+          <t>60621</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>116545</t>
+          <t>120723</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>106997</t>
+          <t>111426</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>125451</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2174,32 +2174,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>159417</t>
+          <t>174310</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>149393</t>
+          <t>163416</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>169490</t>
+          <t>185308</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>12,44%</t>
         </is>
       </c>
     </row>
@@ -2217,32 +2217,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>397391</t>
+          <t>384764</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>385369</t>
+          <t>372234</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>408081</t>
+          <t>395498</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>52,7%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>59,89%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2252,32 +2252,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>352866</t>
+          <t>349130</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>341453</t>
+          <t>337368</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>364948</t>
+          <t>361387</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>44,57%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>49,05%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2287,32 +2287,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>750256</t>
+          <t>733894</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>734948</t>
+          <t>715971</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>766734</t>
+          <t>750889</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>52,63%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>51,56%</t>
+          <t>48,06%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>53,79%</t>
+          <t>50,41%</t>
         </is>
       </c>
     </row>
@@ -2330,32 +2330,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>241167</t>
+          <t>267987</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>230521</t>
+          <t>255979</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>252683</t>
+          <t>278952</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,32 +2365,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>274565</t>
+          <t>313479</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>262286</t>
+          <t>302009</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>285998</t>
+          <t>325573</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>40,02%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,32 +2400,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>515731</t>
+          <t>581467</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>500173</t>
+          <t>565832</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>531070</t>
+          <t>598746</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>40,19%</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>681430</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>681430</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>681430</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>743975</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>743975</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>743975</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1425404</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1425404</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1425404</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>571</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7110</t>
+          <t>7017</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>163346</t>
+          <t>164289</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>196687</t>
+          <t>195517</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2874,12 +2874,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>164181</t>
+          <t>164561</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>203116</t>
+          <t>203244</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>32,65%</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>193334</t>
+          <t>193652</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>209979</t>
+          <t>210037</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>85,45%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2952,12 +2952,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>177727</t>
+          <t>179116</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>211192</t>
+          <t>211391</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>53,36%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2987,12 +2987,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>375495</t>
+          <t>374011</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>417275</t>
+          <t>416852</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3002,12 +3002,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>60,09%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>67,04%</t>
+          <t>66,97%</t>
         </is>
       </c>
     </row>
@@ -3030,12 +3030,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14446</t>
+          <t>14631</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29843</t>
+          <t>31063</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15384</t>
+          <t>14839</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29044</t>
+          <t>28749</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>32554</t>
+          <t>32575</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>53644</t>
+          <t>54677</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,78%</t>
         </is>
       </c>
     </row>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>80901</t>
+          <t>81785</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>193289</t>
+          <t>191867</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3275,12 +3275,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>168678</t>
+          <t>173180</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>338633</t>
+          <t>342989</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3310,12 +3310,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3330,12 +3330,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>294133</t>
+          <t>295544</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>503279</t>
+          <t>503550</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>18,15%</t>
         </is>
       </c>
     </row>
@@ -3373,12 +3373,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>819620</t>
+          <t>820872</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1134561</t>
+          <t>1121213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3388,12 +3388,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>58,65%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,06%</t>
+          <t>80,11%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>761004</t>
+          <t>757481</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1064981</t>
+          <t>1056775</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>55,34%</t>
+          <t>55,08%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>77,44%</t>
+          <t>76,85%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1625248</t>
+          <t>1619359</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2112012</t>
+          <t>2066601</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>58,57%</t>
+          <t>58,36%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>74,48%</t>
         </is>
       </c>
     </row>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>177799</t>
+          <t>188701</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>404532</t>
+          <t>410326</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>144727</t>
+          <t>144300</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>283881</t>
+          <t>283843</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -3556,12 +3556,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>379718</t>
+          <t>406661</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>658312</t>
+          <t>664854</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>23,96%</t>
         </is>
       </c>
     </row>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>12280</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39932</t>
+          <t>36911</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22613</t>
+          <t>23739</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>48356</t>
+          <t>48261</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3766,12 +3766,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -3786,12 +3786,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>39527</t>
+          <t>40634</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>73589</t>
+          <t>75382</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,52%</t>
         </is>
       </c>
     </row>
@@ -3829,12 +3829,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36980</t>
+          <t>38083</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>66952</t>
+          <t>68982</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3844,12 +3844,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>43401</t>
+          <t>43888</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>69701</t>
+          <t>68468</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3879,12 +3879,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3899,12 +3899,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>86212</t>
+          <t>87743</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>127399</t>
+          <t>127179</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>14,38%</t>
         </is>
       </c>
     </row>
@@ -3942,12 +3942,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>358192</t>
+          <t>356814</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>396011</t>
+          <t>395870</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3957,12 +3957,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>79,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,86%</t>
+          <t>87,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3977,12 +3977,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>328147</t>
+          <t>327725</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>359664</t>
+          <t>360682</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3992,12 +3992,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>75,54%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>82,9%</t>
+          <t>83,14%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4012,12 +4012,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>698485</t>
+          <t>697691</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>744596</t>
+          <t>746577</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>78,87%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,17%</t>
+          <t>84,4%</t>
         </is>
       </c>
     </row>
@@ -4172,12 +4172,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>108990</t>
+          <t>111159</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>221756</t>
+          <t>217950</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4187,12 +4187,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4207,12 +4207,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>346619</t>
+          <t>346423</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>559871</t>
+          <t>560032</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>523445</t>
+          <t>517683</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>748748</t>
+          <t>746421</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>17,43%</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1054251</t>
+          <t>1050044</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1484710</t>
+          <t>1477156</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4300,12 +4300,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>71,12%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4320,12 +4320,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>974754</t>
+          <t>982467</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1450158</t>
+          <t>1433408</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4335,12 +4335,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>65,77%</t>
+          <t>65,01%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>2078556</t>
+          <t>2061611</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>2684931</t>
+          <t>2722493</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>63,58%</t>
         </is>
       </c>
     </row>
@@ -4398,12 +4398,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>473436</t>
+          <t>494973</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>834235</t>
+          <t>840599</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -4433,12 +4433,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>435303</t>
+          <t>416846</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>680498</t>
+          <t>674555</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -4468,12 +4468,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>1075926</t>
+          <t>1050112</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>1470315</t>
+          <t>1488530</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>34,76%</t>
         </is>
       </c>
     </row>
@@ -6930,12 +6930,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5144</t>
+          <t>5234</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19395</t>
+          <t>20553</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -6965,12 +6965,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12260</t>
+          <t>11769</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25236</t>
+          <t>25151</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -6980,12 +6980,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -7000,12 +7000,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>21006</t>
+          <t>19995</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>40800</t>
+          <t>40551</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -7015,12 +7015,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>18,62%</t>
         </is>
       </c>
     </row>
@@ -7043,12 +7043,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61774</t>
+          <t>61031</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81090</t>
+          <t>80421</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -7058,12 +7058,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>62,68%</t>
+          <t>61,93%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>81,6%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>81224</t>
+          <t>81058</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>96956</t>
+          <t>97473</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>68,12%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>81,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -7113,12 +7113,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>148264</t>
+          <t>149113</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>172409</t>
+          <t>173757</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -7128,12 +7128,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>68,08%</t>
+          <t>68,47%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>79,17%</t>
+          <t>79,78%</t>
         </is>
       </c>
     </row>
@@ -7156,12 +7156,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9257</t>
+          <t>9791</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24248</t>
+          <t>25400</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -7171,12 +7171,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>7566</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17732</t>
+          <t>17788</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7206,12 +7206,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -7226,12 +7226,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>19225</t>
+          <t>19603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>36522</t>
+          <t>37836</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7241,12 +7241,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>17,37%</t>
         </is>
       </c>
     </row>
@@ -7386,12 +7386,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17184</t>
+          <t>17575</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29801</t>
+          <t>29806</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>32026</t>
+          <t>31580</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>47240</t>
+          <t>47251</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -7456,12 +7456,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>52539</t>
+          <t>53097</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>72297</t>
+          <t>74496</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -7471,12 +7471,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,5%</t>
         </is>
       </c>
     </row>
@@ -7499,12 +7499,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>187076</t>
+          <t>186733</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>213553</t>
+          <t>212477</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7514,12 +7514,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,42%</t>
+          <t>52,32%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>59,54%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -7534,12 +7534,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>156214</t>
+          <t>155968</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>182503</t>
+          <t>181434</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7549,12 +7549,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>44,3%</t>
+          <t>44,23%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>51,75%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>350597</t>
+          <t>350475</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>386652</t>
+          <t>388733</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7584,12 +7584,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>49,41%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>54,79%</t>
         </is>
       </c>
     </row>
@@ -7612,12 +7612,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>121033</t>
+          <t>121631</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>146601</t>
+          <t>147608</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -7627,12 +7627,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>41,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -7647,12 +7647,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>132631</t>
+          <t>130983</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>157919</t>
+          <t>156987</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -7662,12 +7662,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>37,14%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -7682,12 +7682,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>261638</t>
+          <t>261561</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>296354</t>
+          <t>297681</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -7697,12 +7697,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>41,77%</t>
+          <t>41,96%</t>
         </is>
       </c>
     </row>
@@ -7842,12 +7842,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>581</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3287</t>
+          <t>3259</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7857,12 +7857,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -7877,12 +7877,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3439</t>
+          <t>3221</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10692</t>
+          <t>10822</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>13002</t>
+          <t>12607</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7927,12 +7927,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -7955,12 +7955,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19310</t>
+          <t>18910</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32047</t>
+          <t>31414</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -7970,12 +7970,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -7990,12 +7990,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28374</t>
+          <t>29036</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45343</t>
+          <t>46431</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -8005,12 +8005,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -8025,12 +8025,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>51441</t>
+          <t>51389</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>73892</t>
+          <t>73012</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -8040,12 +8040,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,45%</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8068,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>190506</t>
+          <t>190763</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>202900</t>
+          <t>203341</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -8083,12 +8083,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,14%</t>
+          <t>85,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>228467</t>
+          <t>228210</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>247337</t>
+          <t>246722</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -8118,12 +8118,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>81,16%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,87%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -8138,12 +8138,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>423679</t>
+          <t>423836</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>447485</t>
+          <t>446372</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -8153,12 +8153,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>88,57%</t>
+          <t>88,35%</t>
         </is>
       </c>
     </row>
@@ -8298,12 +8298,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27313</t>
+          <t>26928</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>47793</t>
+          <t>47967</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -8313,12 +8313,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -8333,12 +8333,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>52682</t>
+          <t>52840</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>73271</t>
+          <t>73736</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -8348,12 +8348,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -8368,12 +8368,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>84468</t>
+          <t>85536</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>113950</t>
+          <t>116438</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -8383,12 +8383,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,13%</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8411,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>277063</t>
+          <t>275883</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>318953</t>
+          <t>316707</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -8426,12 +8426,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>46,63%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -8446,12 +8446,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>275205</t>
+          <t>275625</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>316133</t>
+          <t>317746</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -8461,12 +8461,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>42,18%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -8481,12 +8481,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>564771</t>
+          <t>564148</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>622753</t>
+          <t>619785</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -8496,12 +8496,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>43,26%</t>
         </is>
       </c>
     </row>
@@ -8524,12 +8524,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>325377</t>
+          <t>323020</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>365329</t>
+          <t>364397</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8539,12 +8539,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,91%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>53,79%</t>
+          <t>53,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -8559,12 +8559,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>374045</t>
+          <t>374148</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>414098</t>
+          <t>414020</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8574,12 +8574,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>49,65%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>54,96%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -8594,12 +8594,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>711636</t>
+          <t>712345</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>766179</t>
+          <t>768747</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8609,12 +8609,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>49,73%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>53,66%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CLASESOCIAL_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
+          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4719</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>596</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>7598</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>39267</t>
+          <t>198040</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34866</t>
+          <t>182394</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43737</t>
+          <t>215187</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>49,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>321</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>43985</t>
+          <t>201008</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>39233</t>
+          <t>180712</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>49590</t>
+          <t>222636</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>32,5%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>65817</t>
+          <t>225594</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62673</t>
+          <t>214212</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>68820</t>
+          <t>233637</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,38%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>339</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>72975</t>
+          <t>210595</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>67856</t>
+          <t>194342</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77313</t>
+          <t>227564</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>48,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>56,61%</t>
+          <t>45,05%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>64,5%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>594</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>138791</t>
+          <t>436189</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>132919</t>
+          <t>412180</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>143868</t>
+          <t>457472</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>69,46%</t>
+          <t>63,68%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>60,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>72,0%</t>
+          <t>66,79%</t>
         </is>
       </c>
     </row>
@@ -957,107 +957,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>24944</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6938</t>
+          <t>17342</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12379</t>
+          <t>36656</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7615</t>
+          <t>22796</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>15788</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10193</t>
+          <t>31010</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>17042</t>
+          <t>47740</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>13887</t>
+          <t>36676</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>20418</t>
+          <t>61831</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79963</t>
+          <t>253507</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79963</t>
+          <t>253507</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79963</t>
+          <t>253507</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>119857</t>
+          <t>431431</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>119857</t>
+          <t>431431</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>119857</t>
+          <t>431431</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1140,22 +1140,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>981</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>199819</t>
+          <t>684938</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>199819</t>
+          <t>684938</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>199819</t>
+          <t>684938</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41715</t>
+          <t>141042</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35657</t>
+          <t>110180</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>47897</t>
+          <t>176571</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>342</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70803</t>
+          <t>311284</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>64156</t>
+          <t>281304</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>78700</t>
+          <t>343890</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>112518</t>
+          <t>452325</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>103563</t>
+          <t>407554</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>121787</t>
+          <t>505761</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>19,98%</t>
         </is>
       </c>
     </row>
@@ -1300,107 +1300,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1749</t>
+          <t>695</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>292638</t>
+          <t>784088</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>284198</t>
+          <t>742277</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>302567</t>
+          <t>825033</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,6%</t>
+          <t>61,44%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,73%</t>
+          <t>58,17%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,79%</t>
+          <t>64,65%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>928</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>243908</t>
+          <t>687252</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>235380</t>
+          <t>655702</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>253229</t>
+          <t>722350</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>55,65%</t>
+          <t>54,78%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>57,78%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3149</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>536545</t>
+          <t>1471341</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>522430</t>
+          <t>1414518</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>549236</t>
+          <t>1521008</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>60,2%</t>
+          <t>58,14%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>58,61%</t>
+          <t>55,89%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>61,62%</t>
+          <t>60,1%</t>
         </is>
       </c>
     </row>
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>118679</t>
+          <t>350991</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>109729</t>
+          <t>316838</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>127264</t>
+          <t>387564</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>123563</t>
+          <t>256109</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>115394</t>
+          <t>229447</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>132230</t>
+          <t>280637</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>692</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>242241</t>
+          <t>607100</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>231351</t>
+          <t>563636</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>254898</t>
+          <t>648200</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>25,61%</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>453032</t>
+          <t>1276121</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>453032</t>
+          <t>1276121</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>453032</t>
+          <t>1276121</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1561,22 +1561,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>438273</t>
+          <t>1254645</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>438273</t>
+          <t>1254645</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>438273</t>
+          <t>1254645</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1596,22 +1596,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>2717</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>891304</t>
+          <t>2530766</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>891304</t>
+          <t>2530766</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>891304</t>
+          <t>2530766</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1643,107 +1643,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7153</t>
+          <t>25486</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5113</t>
+          <t>13774</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10614</t>
+          <t>41654</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10653</t>
+          <t>35900</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7901</t>
+          <t>25809</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>13946</t>
+          <t>51296</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>17807</t>
+          <t>61386</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>13759</t>
+          <t>44681</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>21745</t>
+          <t>82567</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>8,41%</t>
         </is>
       </c>
     </row>
@@ -1756,107 +1756,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26309</t>
+          <t>67102</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22180</t>
+          <t>51012</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31076</t>
+          <t>88492</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32248</t>
+          <t>73749</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27455</t>
+          <t>59057</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37499</t>
+          <t>90188</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>149</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>58557</t>
+          <t>140851</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>51786</t>
+          <t>118556</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>65323</t>
+          <t>165765</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,89%</t>
         </is>
       </c>
     </row>
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>405</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>139882</t>
+          <t>406291</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>134829</t>
+          <t>382843</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>144664</t>
+          <t>427709</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>80,7%</t>
+          <t>81,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>77,78%</t>
+          <t>76,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>83,46%</t>
+          <t>85,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>520</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>182301</t>
+          <t>373159</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>176689</t>
+          <t>354409</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>187775</t>
+          <t>390881</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>80,95%</t>
+          <t>77,29%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>78,46%</t>
+          <t>73,41%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>83,38%</t>
+          <t>80,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1682</t>
+          <t>925</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>322183</t>
+          <t>779449</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>315036</t>
+          <t>751071</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>329693</t>
+          <t>807509</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>79,4%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>79,05%</t>
+          <t>76,51%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>82,72%</t>
+          <t>82,26%</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>173344</t>
+          <t>498879</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>173344</t>
+          <t>498879</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>173344</t>
+          <t>498879</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>649</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>225202</t>
+          <t>482807</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>225202</t>
+          <t>482807</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>225202</t>
+          <t>482807</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>398547</t>
+          <t>981686</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>398547</t>
+          <t>981686</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>398547</t>
+          <t>981686</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2099,107 +2099,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>53587</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>46846</t>
+          <t>135068</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>60621</t>
+          <t>214475</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>120723</t>
+          <t>545223</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>111426</t>
+          <t>507469</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>589010</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>773</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>174310</t>
+          <t>714719</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>163416</t>
+          <t>661829</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>185308</t>
+          <t>774717</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>18,46%</t>
         </is>
       </c>
     </row>
@@ -2212,107 +2212,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2295</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>384764</t>
+          <t>1076785</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>372234</t>
+          <t>1027152</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>395498</t>
+          <t>1127123</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,7%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>55,99%</t>
+          <t>55,56%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>349130</t>
+          <t>971596</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>337368</t>
+          <t>931430</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>361387</t>
+          <t>1014933</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>44,57%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>43,07%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>46,8%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>2366</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>733894</t>
+          <t>2048381</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>715971</t>
+          <t>1981654</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>750889</t>
+          <t>2116615</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>47,21%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>50,41%</t>
+          <t>50,43%</t>
         </is>
       </c>
     </row>
@@ -2325,107 +2325,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>778</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>267987</t>
+          <t>782226</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>255979</t>
+          <t>737021</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>278952</t>
+          <t>831655</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>38,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>36,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>905</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>313479</t>
+          <t>652064</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>302009</t>
+          <t>613643</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>325573</t>
+          <t>691474</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>3122</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>581467</t>
+          <t>1434290</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>565832</t>
+          <t>1373516</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>598746</t>
+          <t>1497376</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>35,67%</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>706338</t>
+          <t>2028507</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>706338</t>
+          <t>2028507</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>706338</t>
+          <t>2028507</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2473,22 +2473,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>2960</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>783332</t>
+          <t>2168883</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>783332</t>
+          <t>2168883</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>783332</t>
+          <t>2168883</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2508,22 +2508,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>8387</t>
+          <t>4822</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1489670</t>
+          <t>4197390</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1489670</t>
+          <t>4197390</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1489670</t>
+          <t>4197390</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2609,7 +2609,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
+          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2794,107 +2794,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>11273</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>5234</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7017</t>
+          <t>20553</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>180175</t>
+          <t>18079</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>164289</t>
+          <t>11769</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>195517</t>
+          <t>25151</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>49,4%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>182946</t>
+          <t>29352</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>164561</t>
+          <t>19995</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>203244</t>
+          <t>40551</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>18,62%</t>
         </is>
       </c>
     </row>
@@ -2907,107 +2907,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>202597</t>
+          <t>71997</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>193652</t>
+          <t>61031</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>210037</t>
+          <t>80421</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>73,05%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>61,93%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>81,6%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>200</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>194448</t>
+          <t>89669</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>179116</t>
+          <t>81058</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>211391</t>
+          <t>97473</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>75,21%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>81,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>345</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>397045</t>
+          <t>161666</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>374011</t>
+          <t>149113</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>416852</t>
+          <t>173757</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>74,23%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>60,09%</t>
+          <t>68,47%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>66,97%</t>
+          <t>79,78%</t>
         </is>
       </c>
     </row>
@@ -3020,107 +3020,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21267</t>
+          <t>15284</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14631</t>
+          <t>9791</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31063</t>
+          <t>25400</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21155</t>
+          <t>11480</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14839</t>
+          <t>7566</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28749</t>
+          <t>17788</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>42422</t>
+          <t>26765</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>32575</t>
+          <t>19603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>54677</t>
+          <t>37836</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>17,37%</t>
         </is>
       </c>
     </row>
@@ -3133,22 +3133,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>226635</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>226635</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>226635</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3168,22 +3168,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>293</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>395778</t>
+          <t>119228</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>395778</t>
+          <t>119228</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>395778</t>
+          <t>119228</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3203,22 +3203,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>488</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>622413</t>
+          <t>217783</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>622413</t>
+          <t>217783</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>622413</t>
+          <t>217783</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3250,107 +3250,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>141393</t>
+          <t>22901</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>81785</t>
+          <t>17575</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>191867</t>
+          <t>29806</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>272610</t>
+          <t>38971</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>173180</t>
+          <t>31580</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>342989</t>
+          <t>47251</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>159</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>414004</t>
+          <t>61873</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>295544</t>
+          <t>53097</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>503550</t>
+          <t>74496</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>10,5%</t>
         </is>
       </c>
     </row>
@@ -3363,107 +3363,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>415</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>932949</t>
+          <t>200175</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>820872</t>
+          <t>186733</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1121213</t>
+          <t>212477</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,66%</t>
+          <t>56,09%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,65%</t>
+          <t>52,32%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,11%</t>
+          <t>59,54%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>875021</t>
+          <t>168826</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>757481</t>
+          <t>155968</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1056775</t>
+          <t>181434</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>63,63%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>55,08%</t>
+          <t>44,23%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>76,85%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>763</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1807970</t>
+          <t>369001</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1619359</t>
+          <t>350475</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2066601</t>
+          <t>388733</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>65,16%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>58,36%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>54,79%</t>
         </is>
       </c>
     </row>
@@ -3476,107 +3476,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>325320</t>
+          <t>133796</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>188701</t>
+          <t>121631</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>410326</t>
+          <t>147608</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>41,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>358</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>227544</t>
+          <t>144845</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>144300</t>
+          <t>130983</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>283843</t>
+          <t>156987</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>37,14%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>677</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>552864</t>
+          <t>278641</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>406661</t>
+          <t>261561</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>664854</t>
+          <t>297681</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>41,96%</t>
         </is>
       </c>
     </row>
@@ -3589,22 +3589,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1399662</t>
+          <t>356872</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1399662</t>
+          <t>356872</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1399662</t>
+          <t>356872</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3624,22 +3624,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>804</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1375175</t>
+          <t>352643</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1375175</t>
+          <t>352643</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1375175</t>
+          <t>352643</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3659,22 +3659,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2717</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>2774837</t>
+          <t>709515</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>2774837</t>
+          <t>709515</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>2774837</t>
+          <t>709515</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3706,107 +3706,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1501</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3259</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>22597</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12280</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>36911</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,01%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,72%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,19%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>33323</t>
+          <t>6299</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>23739</t>
+          <t>3221</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>48261</t>
+          <t>10822</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>55920</t>
+          <t>7800</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>40634</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>75382</t>
+          <t>12607</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -3824,22 +3824,22 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50207</t>
+          <t>24667</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38083</t>
+          <t>18910</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68982</t>
+          <t>31414</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -3849,77 +3849,77 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56095</t>
+          <t>37032</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>43888</t>
+          <t>29036</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>68468</t>
+          <t>46431</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>123</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>106302</t>
+          <t>61699</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>87743</t>
+          <t>51389</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>127179</t>
+          <t>73012</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,45%</t>
         </is>
       </c>
     </row>
@@ -3932,107 +3932,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>377939</t>
+          <t>197592</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>356814</t>
+          <t>190763</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>395870</t>
+          <t>203341</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>88,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,16%</t>
+          <t>85,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>676</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>344429</t>
+          <t>238158</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>327725</t>
+          <t>228210</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>360682</t>
+          <t>246722</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>75,54%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>83,14%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>722368</t>
+          <t>435750</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>697691</t>
+          <t>423836</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>746577</t>
+          <t>446372</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>81,66%</t>
+          <t>86,24%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>78,87%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>88,35%</t>
         </is>
       </c>
     </row>
@@ -4045,22 +4045,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>642</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>450743</t>
+          <t>223759</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>450743</t>
+          <t>223759</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>450743</t>
+          <t>223759</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4080,22 +4080,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>757</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>433847</t>
+          <t>281490</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>433847</t>
+          <t>281490</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>433847</t>
+          <t>281490</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4115,22 +4115,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>884590</t>
+          <t>505249</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>884590</t>
+          <t>505249</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>884590</t>
+          <t>505249</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4162,107 +4162,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>35675</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>111159</t>
+          <t>26928</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>217950</t>
+          <t>47967</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>486109</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>346423</t>
+          <t>52840</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>560032</t>
+          <t>73736</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>243</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>652870</t>
+          <t>99025</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>517683</t>
+          <t>85536</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>746421</t>
+          <t>116438</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>8,13%</t>
         </is>
       </c>
     </row>
@@ -4275,107 +4275,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>616</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1185752</t>
+          <t>296839</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1050044</t>
+          <t>275883</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1477156</t>
+          <t>316707</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>57,09%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>46,63%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>615</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1125564</t>
+          <t>295528</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>982467</t>
+          <t>275625</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1433408</t>
+          <t>317746</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>65,01%</t>
+          <t>42,18%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>2366</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>2311316</t>
+          <t>592367</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>2061611</t>
+          <t>564148</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>2722493</t>
+          <t>619785</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>53,98%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>63,58%</t>
+          <t>43,26%</t>
         </is>
       </c>
     </row>
@@ -4388,107 +4388,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>929</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>724526</t>
+          <t>346672</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>494973</t>
+          <t>323020</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>840599</t>
+          <t>364397</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>53,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>593128</t>
+          <t>394484</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>416846</t>
+          <t>374148</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>674555</t>
+          <t>414020</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>52,36%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>54,96%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>1317654</t>
+          <t>741156</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>1050112</t>
+          <t>712345</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>1488530</t>
+          <t>768747</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>51,74%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>49,73%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>53,66%</t>
         </is>
       </c>
     </row>
@@ -4501,22 +4501,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2077040</t>
+          <t>679186</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2077040</t>
+          <t>679186</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2077040</t>
+          <t>679186</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4536,22 +4536,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2960</t>
+          <t>1854</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2204800</t>
+          <t>753361</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2204800</t>
+          <t>753361</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2204800</t>
+          <t>753361</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -4571,22 +4571,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>4822</t>
+          <t>3486</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4281840</t>
+          <t>1432547</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4281840</t>
+          <t>1432547</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4281840</t>
+          <t>1432547</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6735,7 +6735,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
+          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6920,107 +6920,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11273</t>
+          <t>4719</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5234</t>
+          <t>2985</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20553</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>236</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18079</t>
+          <t>39267</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11769</t>
+          <t>34866</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25151</t>
+          <t>43737</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>262</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>29352</t>
+          <t>43985</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>19995</t>
+          <t>39233</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>40551</t>
+          <t>49590</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>24,82%</t>
         </is>
       </c>
     </row>
@@ -7033,107 +7033,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71997</t>
+          <t>65817</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61031</t>
+          <t>62673</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80421</t>
+          <t>68820</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,93%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,6%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>452</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>89669</t>
+          <t>72975</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>81058</t>
+          <t>67856</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>97473</t>
+          <t>77313</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>75,21%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>67,99%</t>
+          <t>56,61%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>81,75%</t>
+          <t>64,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>861</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>161666</t>
+          <t>138791</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>149113</t>
+          <t>132919</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>173757</t>
+          <t>143868</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>74,23%</t>
+          <t>69,46%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>68,47%</t>
+          <t>66,52%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>72,0%</t>
         </is>
       </c>
     </row>
@@ -7146,107 +7146,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15284</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9791</t>
+          <t>6938</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25400</t>
+          <t>12379</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11480</t>
+          <t>7615</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7566</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17788</t>
+          <t>10193</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>107</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>26765</t>
+          <t>17042</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>19603</t>
+          <t>13887</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>37836</t>
+          <t>20418</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>10,22%</t>
         </is>
       </c>
     </row>
@@ -7259,22 +7259,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>489</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7294,22 +7294,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>741</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>119228</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>119228</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>119228</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -7329,22 +7329,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>217783</t>
+          <t>199819</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>217783</t>
+          <t>199819</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>217783</t>
+          <t>199819</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -7376,107 +7376,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22901</t>
+          <t>41715</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17575</t>
+          <t>35657</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29806</t>
+          <t>47897</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>391</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>38971</t>
+          <t>70803</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>31580</t>
+          <t>64156</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>47251</t>
+          <t>78700</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>587</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>61873</t>
+          <t>112518</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>53097</t>
+          <t>103563</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>74496</t>
+          <t>121787</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>13,66%</t>
         </is>
       </c>
     </row>
@@ -7489,107 +7489,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>1749</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>200175</t>
+          <t>292638</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>186733</t>
+          <t>284198</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>212477</t>
+          <t>302567</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,09%</t>
+          <t>64,6%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,32%</t>
+          <t>62,73%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>59,54%</t>
+          <t>66,79%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>168826</t>
+          <t>243908</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>155968</t>
+          <t>235380</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>181434</t>
+          <t>253229</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>57,78%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>369001</t>
+          <t>536545</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>350475</t>
+          <t>522430</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>388733</t>
+          <t>549236</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>52,01%</t>
+          <t>60,2%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>49,4%</t>
+          <t>58,61%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>54,79%</t>
+          <t>61,62%</t>
         </is>
       </c>
     </row>
@@ -7602,107 +7602,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>654</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>133796</t>
+          <t>118679</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>121631</t>
+          <t>109729</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>147608</t>
+          <t>127264</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>679</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>144845</t>
+          <t>123563</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>130983</t>
+          <t>115394</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>156987</t>
+          <t>132230</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>278641</t>
+          <t>242241</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>261561</t>
+          <t>231351</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>297681</t>
+          <t>254898</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>28,6%</t>
         </is>
       </c>
     </row>
@@ -7715,22 +7715,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>356872</t>
+          <t>453032</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>356872</t>
+          <t>453032</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>356872</t>
+          <t>453032</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -7750,22 +7750,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>352643</t>
+          <t>438273</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>352643</t>
+          <t>438273</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>352643</t>
+          <t>438273</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -7785,22 +7785,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>709515</t>
+          <t>891304</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>709515</t>
+          <t>891304</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>709515</t>
+          <t>891304</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -7832,107 +7832,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>7153</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>5113</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3259</t>
+          <t>10614</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6299</t>
+          <t>10653</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>7901</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10822</t>
+          <t>13946</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>7800</t>
+          <t>17807</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>4522</t>
+          <t>13759</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>12607</t>
+          <t>21745</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -7945,107 +7945,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24667</t>
+          <t>26309</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18910</t>
+          <t>22180</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31414</t>
+          <t>31076</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>178</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37032</t>
+          <t>32248</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29036</t>
+          <t>27455</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46431</t>
+          <t>37499</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>315</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>61699</t>
+          <t>58557</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>51389</t>
+          <t>51786</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>73012</t>
+          <t>65323</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -8058,107 +8058,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>197592</t>
+          <t>139882</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>190763</t>
+          <t>134829</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>203341</t>
+          <t>144664</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>80,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,25%</t>
+          <t>77,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>83,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>953</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>238158</t>
+          <t>182301</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>228210</t>
+          <t>176689</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>246722</t>
+          <t>187775</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>84,61%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>81,07%</t>
+          <t>78,46%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,65%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>1682</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>435750</t>
+          <t>322183</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>423836</t>
+          <t>315036</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>446372</t>
+          <t>329693</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>86,24%</t>
+          <t>80,84%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>82,72%</t>
         </is>
       </c>
     </row>
@@ -8171,22 +8171,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>223759</t>
+          <t>173344</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>223759</t>
+          <t>173344</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>223759</t>
+          <t>173344</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -8206,22 +8206,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>281490</t>
+          <t>225202</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>281490</t>
+          <t>225202</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>281490</t>
+          <t>225202</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8241,22 +8241,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>2088</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>505249</t>
+          <t>398547</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>505249</t>
+          <t>398547</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>505249</t>
+          <t>398547</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8288,107 +8288,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>35675</t>
+          <t>53587</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26928</t>
+          <t>46846</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>47967</t>
+          <t>60621</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>684</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>120723</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>52840</t>
+          <t>111426</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>73736</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>940</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>99025</t>
+          <t>174310</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>85536</t>
+          <t>163416</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>116438</t>
+          <t>185308</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>12,44%</t>
         </is>
       </c>
     </row>
@@ -8401,107 +8401,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>2295</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>296839</t>
+          <t>384764</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>275883</t>
+          <t>372234</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>316707</t>
+          <t>395498</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>52,7%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,63%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>295528</t>
+          <t>349130</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>275625</t>
+          <t>337368</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>317746</t>
+          <t>361387</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>44,57%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>42,18%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>592367</t>
+          <t>733894</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>564148</t>
+          <t>715971</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>619785</t>
+          <t>750889</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>48,06%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>43,26%</t>
+          <t>50,41%</t>
         </is>
       </c>
     </row>
@@ -8514,107 +8514,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>346672</t>
+          <t>267987</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>323020</t>
+          <t>255979</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>364397</t>
+          <t>278952</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>53,65%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>394484</t>
+          <t>313479</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>374148</t>
+          <t>302009</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>414020</t>
+          <t>325573</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>52,36%</t>
+          <t>40,02%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>54,96%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>741156</t>
+          <t>581467</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>712345</t>
+          <t>565832</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>768747</t>
+          <t>598746</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>49,73%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>53,66%</t>
+          <t>40,19%</t>
         </is>
       </c>
     </row>
@@ -8627,22 +8627,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>679186</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>679186</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>679186</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -8662,22 +8662,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>753361</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>753361</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>753361</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -8697,22 +8697,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>3486</t>
+          <t>8387</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1432547</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1432547</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1432547</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
